--- a/docs/medicationdispense.xlsx
+++ b/docs/medicationdispense.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="313">
   <si>
     <t>Path</t>
   </si>
@@ -177,7 +177,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -196,7 +196,7 @@
     <t>MedicationDispense.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -212,7 +212,7 @@
     <t>MedicationDispense.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -232,7 +232,7 @@
     <t>MedicationDispense.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -264,7 +264,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -294,7 +294,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -320,7 +320,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -351,7 +351,7 @@
     <t>MedicationDispense.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -373,7 +373,7 @@
     <t>MedicationDispense.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {http://hl7.org/fhir/StructureDefinition/Procedure}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Procedure]]}
 </t>
   </si>
   <si>
@@ -407,9 +407,6 @@
     <t>A set of codes indicating the current status of a MedicationDispense.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-dispense-status</t>
-  </si>
-  <si>
     <t>…status</t>
   </si>
   <si>
@@ -422,7 +419,7 @@
     <t>MedicationDispense.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -447,8 +444,8 @@
     <t>MedicationDispense.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference {http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication}</t>
+    <t>CodeableConcept {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication]]}</t>
   </si>
   <si>
     <t>What medication was supplied</t>
@@ -481,7 +478,7 @@
     <t>MedicationDispense.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient]]}
 </t>
   </si>
   <si>
@@ -509,8 +506,8 @@
     <t>MedicationDispense.context</t>
   </si>
   <si>
-    <t>Reference {http://hl7.org/fhir/StructureDefinition/Encounter}
-Reference {http://hl7.org/fhir/StructureDefinition/EpisodeOfCare}</t>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter], CanonicalType[http://hl7.org/fhir/StructureDefinition/EpisodeOfCare]]}
+</t>
   </si>
   <si>
     <t>Encounter / Episode associated with event</t>
@@ -528,7 +525,7 @@
     <t>MedicationDispense.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {http://hl7.org/fhir/StructureDefinition/Resource}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
 </t>
   </si>
   <si>
@@ -547,7 +544,7 @@
     <t>MedicationDispense.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -573,7 +570,7 @@
     <t>MedicationDispense.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -614,8 +611,8 @@
     <t>MedicationDispense.performer.actor</t>
   </si>
   <si>
-    <t>Reference {http://hl7.org/fhir/us/core/StructureDefinition/us-core-pract}
-Reference {http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization}</t>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-pract], CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization]]}
+</t>
   </si>
   <si>
     <t>Individual who was performing</t>
@@ -633,7 +630,7 @@
     <t>MedicationDispense.performer.onBehalfOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {http://hl7.org/fhir/StructureDefinition/Organization}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
 </t>
   </si>
   <si>
@@ -652,7 +649,7 @@
     <t>MedicationDispense.authorizingPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {http://hl7.org/fhir/StructureDefinition/MedicationRequest}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest]]}
 </t>
   </si>
   <si>
@@ -698,7 +695,7 @@
     <t>MedicationDispense.quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {http://hl7.org/fhir/StructureDefinition/SimpleQuantity}
+    <t xml:space="preserve">Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}
 </t>
   </si>
   <si>
@@ -735,7 +732,7 @@
     <t>MedicationDispense.whenPrepared</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
+    <t xml:space="preserve">dateTime {[]} {[]}
 </t>
   </si>
   <si>
@@ -769,7 +766,7 @@
     <t>MedicationDispense.destination</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {http://hl7.org/fhir/StructureDefinition/Location}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}
 </t>
   </si>
   <si>
@@ -788,8 +785,8 @@
     <t>MedicationDispense.receiver</t>
   </si>
   <si>
-    <t>Reference {http://hl7.org/fhir/StructureDefinition/Patient}
-Reference {http://hl7.org/fhir/StructureDefinition/Practitioner}</t>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner]]}
+</t>
   </si>
   <si>
     <t>Who collected the medication</t>
@@ -804,7 +801,7 @@
     <t>MedicationDispense.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation
+    <t xml:space="preserve">Annotation {[]} {[]}
 </t>
   </si>
   <si>
@@ -826,7 +823,7 @@
     <t>MedicationDispense.dosageInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosage
+    <t xml:space="preserve">Dosage {[]} {[]}
 </t>
   </si>
   <si>
@@ -867,7 +864,7 @@
     <t>MedicationDispense.substitution.wasSubstituted</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t xml:space="preserve">boolean {[]} {[]}
 </t>
   </si>
   <si>
@@ -919,7 +916,7 @@
     <t>MedicationDispense.substitution.responsibleParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {http://hl7.org/fhir/StructureDefinition/Practitioner}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner]]}
 </t>
   </si>
   <si>
@@ -939,7 +936,7 @@
 Drug Utilization Review (DUR)Alert</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {http://hl7.org/fhir/StructureDefinition/DetectedIssue}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/DetectedIssue]]}
 </t>
   </si>
   <si>
@@ -967,8 +964,8 @@
     <t>MedicationDispense.notDoneReason[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference {http://hl7.org/fhir/StructureDefinition/DetectedIssue}</t>
+    <t>CodeableConcept {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/DetectedIssue]]}</t>
   </si>
   <si>
     <t>Why a dispense was not performed</t>
@@ -986,7 +983,7 @@
     <t>MedicationDispense.eventHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {http://hl7.org/fhir/StructureDefinition/Provenance}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Provenance]]}
 </t>
   </si>
   <si>
@@ -2598,7 +2595,7 @@
         <v>124</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>40</v>
@@ -2631,13 +2628,13 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2645,7 +2642,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2668,13 +2665,13 @@
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2701,14 +2698,14 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>40</v>
       </c>
@@ -2725,7 +2722,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2743,7 +2740,7 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2754,7 +2751,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2777,16 +2774,16 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2815,11 +2812,11 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>40</v>
       </c>
@@ -2836,7 +2833,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>51</v>
@@ -2851,21 +2848,21 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2888,16 +2885,16 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2947,7 +2944,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2962,21 +2959,21 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2999,13 +2996,13 @@
         <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3056,7 +3053,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3071,10 +3068,10 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -3085,7 +3082,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3108,13 +3105,13 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3165,7 +3162,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3183,10 +3180,10 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3194,7 +3191,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3217,16 +3214,16 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3276,7 +3273,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3288,13 +3285,13 @@
         <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3305,7 +3302,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3328,13 +3325,13 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3385,7 +3382,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3403,7 +3400,7 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3414,7 +3411,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3443,7 +3440,7 @@
         <v>98</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>100</v>
@@ -3496,7 +3493,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3514,7 +3511,7 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3525,11 +3522,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3554,7 +3551,7 @@
         <v>103</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>100</v>
@@ -3607,7 +3604,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3636,7 +3633,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3659,13 +3656,13 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3716,7 +3713,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>51</v>
@@ -3731,10 +3728,10 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3745,7 +3742,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3768,13 +3765,13 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3825,7 +3822,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3840,10 +3837,10 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3854,7 +3851,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3877,16 +3874,16 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3936,7 +3933,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3951,21 +3948,21 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3988,13 +3985,13 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4021,14 +4018,14 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="X26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4045,7 +4042,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4063,18 +4060,18 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4097,13 +4094,13 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4154,7 +4151,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4172,18 +4169,18 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4206,13 +4203,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4263,7 +4260,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4281,18 +4278,18 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4315,13 +4312,13 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4372,7 +4369,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4390,18 +4387,18 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4424,13 +4421,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4481,7 +4478,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4496,21 +4493,21 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AK30" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4533,13 +4530,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4590,7 +4587,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4608,18 +4605,18 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>244</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4642,13 +4639,13 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4699,7 +4696,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4717,7 +4714,7 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4728,7 +4725,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4751,13 +4748,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4808,7 +4805,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4823,21 +4820,21 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4860,16 +4857,16 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4919,7 +4916,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4937,7 +4934,7 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
@@ -4948,7 +4945,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4971,13 +4968,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5028,7 +5025,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5040,13 +5037,13 @@
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -5057,7 +5054,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5080,13 +5077,13 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5137,7 +5134,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5155,7 +5152,7 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -5166,7 +5163,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5195,7 +5192,7 @@
         <v>98</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>100</v>
@@ -5248,7 +5245,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5266,7 +5263,7 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
@@ -5277,11 +5274,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5306,7 +5303,7 @@
         <v>103</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>100</v>
@@ -5359,7 +5356,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5388,7 +5385,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5411,13 +5408,13 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5468,7 +5465,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>51</v>
@@ -5486,7 +5483,7 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5497,7 +5494,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5520,13 +5517,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5553,14 +5550,14 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5577,7 +5574,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5595,18 +5592,18 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5629,13 +5626,13 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5662,14 +5659,14 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5686,7 +5683,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5704,7 +5701,7 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5715,7 +5712,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5738,13 +5735,13 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5795,7 +5792,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5813,7 +5810,7 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -5824,11 +5821,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5847,13 +5844,13 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5904,7 +5901,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5922,7 +5919,7 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -5933,7 +5930,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5956,13 +5953,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6013,7 +6010,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6028,10 +6025,10 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -6042,7 +6039,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6065,13 +6062,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6122,7 +6119,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6137,10 +6134,10 @@
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6151,7 +6148,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6174,16 +6171,16 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6233,7 +6230,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6251,7 +6248,7 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>

--- a/docs/medicationdispense.xlsx
+++ b/docs/medicationdispense.xlsx
@@ -1154,44 +1154,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.44140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.68359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.48828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.7265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="132.546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="46.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="140.66796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="67.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="48.34765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="27.99609375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="28.0703125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.03125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="22.0078125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/docs/medicationdispense.xlsx
+++ b/docs/medicationdispense.xlsx
@@ -1154,44 +1154,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.68359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.7265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.48828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="140.66796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="48.34765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="132.546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.1328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="46.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="28.0703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="27.99609375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.0078125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="22.03125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
